--- a/NformTester/NformTester/Keywordscripts/600.10.20.110_ConfigurationOnDeviceMaintenanceWindow.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.110_ConfigurationOnDeviceMaintenanceWindow.xlsx
@@ -1241,7 +1241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7756" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7758" uniqueCount="882">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3865,10 +3865,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Equal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3931,6 +3927,17 @@
   </si>
   <si>
     <t>.NET Framework</t>
+  </si>
+  <si>
+    <t>$NAME_SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -4099,7 +4106,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4110,8 +4117,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4156,10 +4166,15 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="4">
@@ -4483,8 +4498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74:C75"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4503,10 +4518,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>861</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>789</v>
@@ -4547,10 +4562,10 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>862</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>863</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4571,10 +4586,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>864</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>865</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4605,10 +4620,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>866</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>867</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -4635,7 +4650,7 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B5" s="8">
         <v>41743</v>
@@ -4659,10 +4674,10 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>869</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>870</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4707,7 +4722,7 @@
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4">
@@ -4730,7 +4745,7 @@
         <v>857</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>858</v>
+        <v>879</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>816</v>
@@ -4745,7 +4760,7 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
@@ -4864,7 +4879,7 @@
         <v>56</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>858</v>
+        <v>879</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="4"/>
@@ -4925,7 +4940,7 @@
         <v>825</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J15" s="4" t="b">
         <v>1</v>
@@ -4937,7 +4952,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="4">
@@ -4959,7 +4974,7 @@
         <v>825</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J16" s="4" t="b">
         <v>0</v>
@@ -4971,7 +4986,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="4">
@@ -5000,7 +5015,7 @@
     <row r="18" spans="1:14">
       <c r="A18" s="2"/>
       <c r="B18" s="13" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -5021,7 +5036,7 @@
         <v>826</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J18" s="4" t="b">
         <v>0</v>
@@ -5034,7 +5049,7 @@
     <row r="19" spans="1:14">
       <c r="A19" s="2"/>
       <c r="B19" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -5055,7 +5070,7 @@
         <v>826</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J19" s="4" t="b">
         <v>0</v>
@@ -5067,7 +5082,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>799</v>
@@ -5091,7 +5106,7 @@
         <v>826</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J20" s="4" t="b">
         <v>0</v>
@@ -5103,7 +5118,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="4">
@@ -5125,7 +5140,7 @@
         <v>826</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J21" s="4" t="b">
         <v>0</v>
@@ -5137,7 +5152,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="4">
@@ -5164,6 +5179,12 @@
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14">
+      <c r="A23" s="20" t="s">
+        <v>880</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>881</v>
+      </c>
       <c r="C23" s="4">
         <v>22</v>
       </c>
@@ -5270,7 +5291,7 @@
         <v>56</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>858</v>
+        <v>879</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="4"/>
@@ -5323,7 +5344,7 @@
         <v>825</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J29" s="4" t="b">
         <v>0</v>
@@ -5353,7 +5374,7 @@
         <v>825</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J30" s="4" t="b">
         <v>1</v>
@@ -5383,7 +5404,7 @@
         <v>825</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J31" s="4" t="b">
         <v>0</v>
@@ -5455,7 +5476,7 @@
         <v>826</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J34" s="4" t="b">
         <v>1</v>
@@ -5485,7 +5506,7 @@
         <v>826</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J35" s="4" t="b">
         <v>1</v>
@@ -5515,7 +5536,7 @@
         <v>826</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J36" s="4" t="b">
         <v>1</v>
@@ -5545,7 +5566,7 @@
         <v>826</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J37" s="4" t="b">
         <v>1</v>
